--- a/content/uploads/NRL Authorised Organisations & Actors Catalogue.xlsx
+++ b/content/uploads/NRL Authorised Organisations & Actors Catalogue.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23322"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hscic365.sharepoint.com/sites/IP/National Record Locator Phase 2/Information Governance/Controller Catalogue/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3c8b218c016a8fb5/Desktop/sairam/Resume/NHSD/NRL/Controller Catalogue/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{801BB699-80E5-4979-97D7-A2D7A4A167AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="434" documentId="8_{7D0B20AB-9F3B-4F66-ABD4-494CD7FD8DE8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{662E88EC-DAA2-4AC1-99AD-A8381780F6F7}"/>
   <bookViews>
-    <workbookView xWindow="-3523" yWindow="9154" windowWidth="23657" windowHeight="15240" xr2:uid="{002AD978-5C6E-465D-AEA7-E6800017B647}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="4" activeTab="6" xr2:uid="{002AD978-5C6E-465D-AEA7-E6800017B647}"/>
   </bookViews>
   <sheets>
     <sheet name="0. Title Sheet" sheetId="6" r:id="rId1"/>
@@ -23,9 +23,9 @@
     <sheet name="3. Admin " sheetId="5" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'2c. NRL End User Orgs'!$A$2:$S$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'2c. NRL End User Orgs'!$A$2:$T$23</definedName>
   </definedNames>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="138">
   <si>
     <t>NRL Controller Catalogue</t>
   </si>
@@ -232,35 +232,16 @@
 Stakeholder is (Pr) Provider / (C) Consumer or both (PrC)</t>
   </si>
   <si>
-    <t>Record status on NRL</t>
-  </si>
-  <si>
-    <t>Live</t>
-  </si>
-  <si>
-    <t>Not Live</t>
-  </si>
-  <si>
     <t>Stakeholder Groups 
 (These are the categories of End Users)</t>
   </si>
   <si>
-    <t>Stakeholder's Status on NRL</t>
-  </si>
-  <si>
     <t>Mental Health Crisis Plan</t>
   </si>
   <si>
     <t>End of Life Plan</t>
   </si>
   <si>
-    <t>Green shaded cells indicate records available on the NRL
-Amber shaded cells indicate records in implementation stage on the NRL
-Not Applicable (N/A) indicates that the Stakeholder will not be utilising the record.
-To Be Confirmed (TBC) indicates NHSD Onboarding Assurance not yet undertaken but expected at a future date.
-To Be Determined (TBD) indicates Stakeholder's usage of NRL and events not yet considered but expected at a future date.</t>
-  </si>
-  <si>
     <t>Ambulance Service</t>
   </si>
   <si>
@@ -274,12 +255,6 @@
   </si>
   <si>
     <t>Care Home Provider</t>
-  </si>
-  <si>
-    <t>Pending</t>
-  </si>
-  <si>
-    <t>Palliative Care Service (Multi-disciplinary Team)</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -326,26 +301,12 @@
     <t>Service Provider Type (see Admin Tab for Key)</t>
   </si>
   <si>
-    <t>Health and Social Care Organisaion</t>
-  </si>
-  <si>
     <t>Start Date</t>
   </si>
   <si>
     <t>End Date</t>
   </si>
   <si>
-    <t>Green shaded cells indicate records available on the NRL
-Amber shaded cells indicate records in implementation stage on the NRL
-Red shaded cells indicate records no longer available on the NRL
-Not Applicable (N/A) indicates that the Stakeholder will not be utilising the record.
-To Be Confirmed (TBC) indicates NHSD Onboarding Assurance not yet undertaken but expected at a future date.
-To Be Determined (TBD) indicates Stakeholder's usage of NEMS and events not yet considered but expected at a future date.</t>
-  </si>
-  <si>
-    <t>London Ambulance Service Foundation Trust</t>
-  </si>
-  <si>
     <t>AS</t>
   </si>
   <si>
@@ -361,15 +322,6 @@
     <t>North West Ambulance Service Foundation Trust</t>
   </si>
   <si>
-    <t>Yorkshire Ambulance Service Foundation Trust</t>
-  </si>
-  <si>
-    <t>South West Ambulance Service Foundation Trust</t>
-  </si>
-  <si>
-    <t>TBC</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cheshire and Wirral Partnership NHS Foundation Trust </t>
   </si>
   <si>
@@ -385,33 +337,18 @@
     <t xml:space="preserve">Humber NHS Foundation Trust </t>
   </si>
   <si>
-    <t>Lancashire and South Cumbria NHS Foundation Trust</t>
-  </si>
-  <si>
     <t xml:space="preserve">South London and Maudsley NHS Foundation Trust </t>
   </si>
   <si>
-    <t xml:space="preserve">Somerset Partnership NHS Foundation Trust </t>
-  </si>
-  <si>
     <t xml:space="preserve">Mersey Care NHS Foundation Trust </t>
   </si>
   <si>
-    <t>Projected NRL connection date: TBC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nottinghamshire Healthcare NHS Foundation Trust </t>
-  </si>
-  <si>
     <t>Care Software Providers Association (CASPA)</t>
   </si>
   <si>
     <t>CH</t>
   </si>
   <si>
-    <t>Private care home providers across England</t>
-  </si>
-  <si>
     <t>CASPA acts as a brokering service between care homes and the NRL</t>
   </si>
   <si>
@@ -424,9 +361,6 @@
     <t>GPs and urgent care providers across the 32 London CCGs</t>
   </si>
   <si>
-    <t>Projected NRL connection date: est. June 2020</t>
-  </si>
-  <si>
     <t>CMC acts as a brokering service between multiple GP and urgent care providers who contribute to the CMC record and the NRL</t>
   </si>
   <si>
@@ -434,13 +368,160 @@
   </si>
   <si>
     <t>Tab 2c NRL End User Orgs Key</t>
+  </si>
+  <si>
+    <t>v1.1</t>
+  </si>
+  <si>
+    <t>Updated to new organisations that have gone live</t>
+  </si>
+  <si>
+    <t>Soumya Jayaram</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Social Care ( Care Homes)</t>
+  </si>
+  <si>
+    <t>Emergency Care ( E Red Bag , Co ordinate My Care)</t>
+  </si>
+  <si>
+    <t>MDT</t>
+  </si>
+  <si>
+    <t>Emergency Health Care( e RedBag, Co ordinate my Care)</t>
+  </si>
+  <si>
+    <t>Coordinate My Care</t>
+  </si>
+  <si>
+    <t>Emergency Care ( eRedBag, Co Ordinate My Care)</t>
+  </si>
+  <si>
+    <t>Health and Social Care Organisation</t>
+  </si>
+  <si>
+    <t>ODS Code</t>
+  </si>
+  <si>
+    <t>RRU</t>
+  </si>
+  <si>
+    <t>Cornwall Partnership NHS Foundation Trust</t>
+  </si>
+  <si>
+    <t>Barnet Enfield and Haringey Mental Health Trust</t>
+  </si>
+  <si>
+    <t>Lincolnshire Partnership NHS Foundation Trust</t>
+  </si>
+  <si>
+    <t>Midlands Partnership NHS Foundation Trust</t>
+  </si>
+  <si>
+    <t>RAT</t>
+  </si>
+  <si>
+    <t>RX6</t>
+  </si>
+  <si>
+    <t>RXA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lanchashire &amp; South Cumbria NHS Foundation Trust</t>
+  </si>
+  <si>
+    <t>RW5</t>
+  </si>
+  <si>
+    <t>RV5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somerset NHS Foundation Trust </t>
+  </si>
+  <si>
+    <t>RH5</t>
+  </si>
+  <si>
+    <t>RW4</t>
+  </si>
+  <si>
+    <t>8KL18</t>
+  </si>
+  <si>
+    <t>YGMY8</t>
+  </si>
+  <si>
+    <t>RJ8</t>
+  </si>
+  <si>
+    <t>RRP</t>
+  </si>
+  <si>
+    <t>RP7</t>
+  </si>
+  <si>
+    <t>RRE</t>
+  </si>
+  <si>
+    <t>London Ambulance Service NHS Trust</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EOL - 14/10/2020
+eRedbag -
+20/01/2021 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ambulance Trust</t>
+  </si>
+  <si>
+    <t>Mental Health Trust</t>
+  </si>
+  <si>
+    <t>Pointers Only</t>
+  </si>
+  <si>
+    <t>South London and Maudsley NHS Foundation Trust</t>
+  </si>
+  <si>
+    <t>East London Foundation Trust</t>
+  </si>
+  <si>
+    <t>North East London NHS Foundation Trust</t>
+  </si>
+  <si>
+    <t>RWK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coordinate My Care </t>
+  </si>
+  <si>
+    <t>Yorkshire Ambulance Service NHS Foundation Trust</t>
+  </si>
+  <si>
+    <t>RX8</t>
+  </si>
+  <si>
+    <t>CMC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pointers Only. 
+Can view pointers only </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Advance care planning </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> This table represents the list of Care settings who are Live on NRL and are either Provider(Pr) or Consumer©</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -504,17 +585,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0F0F0F"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
@@ -527,8 +597,20 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF212529"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -550,12 +632,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,13 +661,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -695,17 +765,6 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -761,13 +820,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -784,9 +856,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -829,12 +898,6 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment textRotation="45"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -844,117 +907,140 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -963,10 +1049,28 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1414,24 +1518,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF617037-F095-4E95-86DC-0DDC157DB475}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="93.88671875" style="13" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="13"/>
+    <col min="1" max="1" width="93.84375" style="12" customWidth="1"/>
+    <col min="2" max="16384" width="8.84375" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="33">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:1" ht="32.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="147.75" customHeight="1">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:1" ht="147.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1443,88 +1547,108 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4E2324B-9420-4A8E-856F-C5521A7CFCBE}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B11" sqref="B11:B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="50.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.84375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.07421875" customWidth="1"/>
+    <col min="4" max="4" width="13.921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="28" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="33" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="35">
+      <c r="C2" s="79">
         <v>43958</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="31" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="28.5">
-      <c r="A3" s="33" t="s">
+    <row r="3" spans="1:4" ht="25" x14ac:dyDescent="0.35">
+      <c r="A3" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="35">
+      <c r="C3" s="79">
         <v>43966</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="31" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="42.75">
-      <c r="A4" s="37" t="s">
+    <row r="4" spans="1:4" ht="25" x14ac:dyDescent="0.35">
+      <c r="A4" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="38">
+      <c r="C4" s="79">
         <v>43987</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="31" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="28.5">
-      <c r="A5" s="37" t="s">
+    <row r="5" spans="1:4" ht="25" x14ac:dyDescent="0.35">
+      <c r="A5" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="38">
+      <c r="C5" s="79">
         <v>44070</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="31" t="s">
         <v>8</v>
       </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="79">
+        <v>44306</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="39"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1539,108 +1663,108 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="30.44140625" customWidth="1"/>
-    <col min="3" max="3" width="35.5546875" customWidth="1"/>
+    <col min="2" max="2" width="30.4609375" customWidth="1"/>
+    <col min="3" max="3" width="35.53515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="29" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="41">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="30">
         <v>0</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="31" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="41" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="31" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="41" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="31" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="41" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="31" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="51">
-      <c r="A6" s="41" t="s">
+    <row r="6" spans="1:3" ht="50" x14ac:dyDescent="0.35">
+      <c r="A6" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="31" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="25.5">
-      <c r="A7" s="41" t="s">
+    <row r="7" spans="1:3" ht="25" x14ac:dyDescent="0.35">
+      <c r="A7" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="31" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="51">
-      <c r="A8" s="41" t="s">
+    <row r="8" spans="1:3" ht="50" x14ac:dyDescent="0.35">
+      <c r="A8" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="31" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="41">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="30">
         <v>3</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="31" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1653,40 +1777,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56D7A738-0FD6-45DC-B322-46F8ED55E4DC}">
   <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="92.109375" customWidth="1"/>
+    <col min="1" max="1" width="92.07421875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="33">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:1" ht="32.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="226.5">
-      <c r="A2" s="30" t="s">
+    <row r="2" spans="1:1" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="31" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="51" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" s="37" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="51" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" s="37" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="51" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" s="37" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="51" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" s="37" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1704,77 +1830,70 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0492A8F5-3834-4AFB-B9CC-5CAA917C9F94}">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5546875" style="16" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" style="16" customWidth="1"/>
-    <col min="3" max="11" width="4.5546875" style="3" customWidth="1"/>
-    <col min="12" max="12" width="3.5546875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="29.109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.88671875" style="1"/>
-    <col min="15" max="15" width="8.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="24.53515625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="12.4609375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11.3046875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="6.69140625" style="3" customWidth="1"/>
+    <col min="5" max="10" width="4.53515625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="3.53515625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="29.07421875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="8.84375" style="1"/>
+    <col min="14" max="14" width="8.23046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.84375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="61.15" customHeight="1">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:12" ht="61.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="54" t="s">
+      <c r="B1" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="M1" s="53" t="s">
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="L1" s="38" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="34.5" customHeight="1">
-      <c r="A2" s="58"/>
-      <c r="B2" s="43" t="s">
+    <row r="2" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="56"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="L2" s="38"/>
+    </row>
+    <row r="3" spans="1:12" ht="91" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="B3" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="C3" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="M2" s="53"/>
-    </row>
-    <row r="3" spans="1:13" ht="165.75">
-      <c r="A3" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="53" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>50</v>
-      </c>
       <c r="D3" s="5" t="s">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -1782,113 +1901,107 @@
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="M3" s="11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="25.15" customHeight="1">
-      <c r="A4" s="15" t="s">
+      <c r="L3" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="L4" s="18"/>
+    </row>
+    <row r="5" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="L5" s="48"/>
+    </row>
+    <row r="6" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="M4" s="19"/>
-    </row>
-    <row r="5" spans="1:13" ht="25.15" customHeight="1">
-      <c r="A5" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="M5" s="19"/>
-    </row>
-    <row r="6" spans="1:13" ht="25.15" customHeight="1">
-      <c r="A6" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="M6" s="19"/>
-    </row>
-    <row r="7" spans="1:13" ht="25.5">
-      <c r="A7" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="M7" s="19"/>
-    </row>
-    <row r="8" spans="1:13" ht="25.15" hidden="1" customHeight="1">
-      <c r="A8" s="15"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="M8" s="19" t="s">
-        <v>60</v>
+    </row>
+    <row r="7" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C1:K1"/>
     <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1897,171 +2010,266 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACA59FD-63FE-4EFD-8940-FFE089884ECA}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.21875" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="3" max="4" width="17.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.23046875" customWidth="1"/>
+    <col min="2" max="2" width="16.4609375" customWidth="1"/>
+    <col min="3" max="4" width="17.69140625" customWidth="1"/>
+    <col min="5" max="5" width="12.53515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="97.5" customHeight="1">
-      <c r="A1" s="63" t="s">
+    <row r="1" spans="1:11" ht="97.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="69" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="70"/>
+      <c r="C1" s="65" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+    </row>
+    <row r="2" spans="1:11" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="64"/>
+      <c r="C2" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+    </row>
+    <row r="3" spans="1:11" ht="62.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="67" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+    </row>
+    <row r="4" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="68"/>
+      <c r="B4" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+    </row>
+    <row r="5" spans="1:11" ht="50" x14ac:dyDescent="0.35">
+      <c r="A5" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="59" t="s">
+      <c r="D5" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+    </row>
+    <row r="6" spans="1:11" ht="38" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="68"/>
+      <c r="B6" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+    </row>
+    <row r="7" spans="1:11" ht="62.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-    </row>
-    <row r="2" spans="1:11" ht="75" customHeight="1" thickBot="1">
-      <c r="A2" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-    </row>
-    <row r="3" spans="1:11" ht="63.75">
-      <c r="A3" s="60" t="s">
+      <c r="B7" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="45" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="49"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-    </row>
-    <row r="4" spans="1:11" ht="26.25" thickBot="1">
-      <c r="A4" s="61"/>
-      <c r="B4" s="46" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-    </row>
-    <row r="5" spans="1:11" ht="38.25">
-      <c r="A5" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" s="45" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-    </row>
-    <row r="6" spans="1:11" ht="26.25" thickBot="1">
-      <c r="A6" s="61"/>
-      <c r="B6" s="46" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-    </row>
-    <row r="7" spans="1:11" ht="51">
-      <c r="A7" s="60" t="s">
-        <v>69</v>
-      </c>
-      <c r="B7" s="45" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-    </row>
-    <row r="8" spans="1:11" ht="26.25" thickBot="1">
-      <c r="A8" s="62"/>
-      <c r="B8" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="C11" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+    </row>
+    <row r="8" spans="1:11" ht="25" x14ac:dyDescent="0.35">
+      <c r="A8" s="67"/>
+      <c r="B8" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+    </row>
+    <row r="9" spans="1:11" ht="50" x14ac:dyDescent="0.35">
+      <c r="A9" s="61" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="39"/>
+      <c r="D9" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+    </row>
+    <row r="10" spans="1:11" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="61"/>
+      <c r="B10" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="39"/>
+      <c r="D10" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+    </row>
+    <row r="11" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="46"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+    </row>
+    <row r="12" spans="1:11" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="63"/>
+      <c r="B12" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C1:K1"/>
     <mergeCell ref="A3:A4"/>
@@ -2076,722 +2284,922 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FDDC2BE-E7F6-48EE-8461-748362E6367F}">
-  <dimension ref="A1:S30"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B21" activePane="bottomRight" state="frozen"/>
+      <selection sqref="A1:B1"/>
+      <selection pane="topRight" sqref="A1:B1"/>
+      <selection pane="bottomLeft" sqref="A1:B1"/>
+      <selection pane="bottomRight" activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.77734375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8" style="2" customWidth="1"/>
-    <col min="3" max="3" width="38.33203125" style="2" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="19.44140625" style="2" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" style="2" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" style="2" hidden="1" customWidth="1"/>
-    <col min="7" max="10" width="4.5546875" style="2" customWidth="1"/>
-    <col min="11" max="15" width="4.5546875" style="3" customWidth="1"/>
-    <col min="16" max="16" width="4.21875" style="3" customWidth="1"/>
-    <col min="17" max="17" width="40.77734375" style="3" customWidth="1"/>
-    <col min="18" max="19" width="5.77734375" style="3" customWidth="1"/>
-    <col min="20" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="25.765625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.15234375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.07421875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.765625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8" style="2" customWidth="1"/>
+    <col min="7" max="7" width="8.23046875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="4.53515625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="6.07421875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="6.4609375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="4.53515625" style="2" customWidth="1"/>
+    <col min="12" max="15" width="4.53515625" style="3" customWidth="1"/>
+    <col min="16" max="16" width="12.765625" style="3" customWidth="1"/>
+    <col min="17" max="17" width="4.23046875" style="3" customWidth="1"/>
+    <col min="18" max="18" width="40.765625" style="3" customWidth="1"/>
+    <col min="19" max="20" width="5.765625" style="3" customWidth="1"/>
+    <col min="21" max="16384" width="8.84375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="4" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A1" s="53"/>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="54" t="s">
+    <row r="1" spans="1:20" s="4" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="38"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="59" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+    </row>
+    <row r="2" spans="1:20" s="4" customFormat="1" ht="86.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+    </row>
+    <row r="3" spans="1:20" s="4" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="19">
+        <v>43431</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="74" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="74" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="74" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="74"/>
+      <c r="P3" s="74"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+    </row>
+    <row r="4" spans="1:20" s="4" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-    </row>
-    <row r="2" spans="1:19" s="4" customFormat="1" ht="153">
-      <c r="A2" s="53" t="s">
+      <c r="B4" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="F4" s="19">
+        <v>43431</v>
+      </c>
+      <c r="H4" s="74" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="74" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" s="74" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" s="75"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="74"/>
+      <c r="O4" s="74"/>
+      <c r="P4" s="74"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+    </row>
+    <row r="5" spans="1:20" s="4" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="B5" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="19">
+        <v>43431</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="74" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" s="74" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" s="74" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" s="74"/>
+      <c r="L5" s="74"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+    </row>
+    <row r="6" spans="1:20" s="4" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="53" t="s">
+      <c r="B6" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F2" s="53" t="s">
+      <c r="D6" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="19">
+        <v>43431</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="H6" s="74" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" s="74" t="s">
+        <v>93</v>
+      </c>
+      <c r="J6" s="74" t="s">
+        <v>93</v>
+      </c>
+      <c r="K6" s="74"/>
+      <c r="L6" s="74"/>
+      <c r="M6" s="74"/>
+      <c r="N6" s="74"/>
+      <c r="O6" s="74"/>
+      <c r="P6" s="74"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+    </row>
+    <row r="7" spans="1:20" s="4" customFormat="1" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="G2" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" s="31" t="s">
+      <c r="B7" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="19">
+        <v>43431</v>
+      </c>
+      <c r="G7" s="19">
+        <v>43962</v>
+      </c>
+      <c r="H7" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="31"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-    </row>
-    <row r="3" spans="1:19" s="4" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A3" s="9" t="s">
+      <c r="I7" s="74" t="s">
+        <v>93</v>
+      </c>
+      <c r="J7" s="74" t="s">
+        <v>93</v>
+      </c>
+      <c r="K7" s="74"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="74"/>
+      <c r="N7" s="74"/>
+      <c r="O7" s="74"/>
+      <c r="P7" s="74"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+    </row>
+    <row r="8" spans="1:20" s="4" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B8" s="8"/>
+      <c r="C8" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="19">
+        <v>43431</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="74" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="74" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" s="74" t="s">
+        <v>93</v>
+      </c>
+      <c r="K8" s="74"/>
+      <c r="L8" s="74"/>
+      <c r="M8" s="74"/>
+      <c r="N8" s="74"/>
+      <c r="O8" s="74"/>
+      <c r="P8" s="74"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+    </row>
+    <row r="9" spans="1:20" s="4" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="19">
+        <v>43431</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="H9" s="74" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" s="74" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9" s="74" t="s">
+        <v>93</v>
+      </c>
+      <c r="K9" s="74"/>
+      <c r="L9" s="74"/>
+      <c r="M9" s="74"/>
+      <c r="N9" s="74"/>
+      <c r="O9" s="74"/>
+      <c r="P9" s="74"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+    </row>
+    <row r="10" spans="1:20" s="4" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="20">
+      <c r="B10" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="19">
         <v>43431</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H3" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="19" t="s">
+      <c r="G10" s="7"/>
+      <c r="H10" s="74" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10" s="74" t="s">
+        <v>93</v>
+      </c>
+      <c r="J10" s="74" t="s">
+        <v>93</v>
+      </c>
+      <c r="K10" s="74"/>
+      <c r="L10" s="74"/>
+      <c r="M10" s="74"/>
+      <c r="N10" s="74"/>
+      <c r="O10" s="74"/>
+      <c r="P10" s="74"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+    </row>
+    <row r="11" spans="1:20" s="4" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="19">
+        <v>43929</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="74" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11" s="74" t="s">
+        <v>93</v>
+      </c>
+      <c r="J11" s="74" t="s">
+        <v>93</v>
+      </c>
+      <c r="K11" s="74"/>
+      <c r="L11" s="74"/>
+      <c r="M11" s="74"/>
+      <c r="N11" s="74"/>
+      <c r="O11" s="74"/>
+      <c r="P11" s="74"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" s="4" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-    </row>
-    <row r="4" spans="1:19" s="4" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A4" s="9" t="s">
+      <c r="B12" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="19">
+        <v>44013</v>
+      </c>
+      <c r="G12" s="7"/>
+      <c r="H12" s="74" t="s">
+        <v>51</v>
+      </c>
+      <c r="I12" s="74" t="s">
+        <v>93</v>
+      </c>
+      <c r="J12" s="74" t="s">
+        <v>93</v>
+      </c>
+      <c r="K12" s="74"/>
+      <c r="L12" s="74"/>
+      <c r="M12" s="74"/>
+      <c r="N12" s="74"/>
+      <c r="O12" s="74"/>
+      <c r="P12" s="74"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+    </row>
+    <row r="13" spans="1:20" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="20">
-        <v>43431</v>
-      </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H4" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="19" t="s">
+      <c r="B13" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-    </row>
-    <row r="5" spans="1:19" s="4" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A5" s="9" t="s">
+      <c r="D13" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="74" t="s">
+        <v>93</v>
+      </c>
+      <c r="I13" s="74" t="s">
+        <v>51</v>
+      </c>
+      <c r="J13" s="74" t="s">
+        <v>51</v>
+      </c>
+      <c r="K13" s="74"/>
+      <c r="L13" s="74"/>
+      <c r="M13" s="74"/>
+      <c r="N13" s="74"/>
+      <c r="O13" s="74"/>
+      <c r="P13" s="74"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="20">
-        <v>43431</v>
-      </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H5" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-    </row>
-    <row r="6" spans="1:19" s="4" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A6" s="9" t="s">
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+    </row>
+    <row r="14" spans="1:20" s="4" customFormat="1" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="20">
-        <v>43431</v>
-      </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H6" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-    </row>
-    <row r="7" spans="1:19" s="4" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A7" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="20" t="s">
+      <c r="B14" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H7" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-    </row>
-    <row r="8" spans="1:19" s="4" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A8" s="9" t="s">
+      <c r="E14" s="8"/>
+      <c r="F14" s="19">
+        <v>44286</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="74" t="s">
+        <v>51</v>
+      </c>
+      <c r="K14" s="74"/>
+      <c r="L14" s="74"/>
+      <c r="M14" s="74"/>
+      <c r="N14" s="74"/>
+      <c r="O14" s="74"/>
+      <c r="P14" s="74"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="20">
-        <v>43431</v>
-      </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H8" s="50"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-    </row>
-    <row r="9" spans="1:19" s="4" customFormat="1" ht="51">
-      <c r="A9" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="E9" s="20">
-        <v>43431</v>
-      </c>
-      <c r="F9" s="20">
-        <v>43962</v>
-      </c>
-      <c r="G9" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-    </row>
-    <row r="10" spans="1:19" s="4" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A10" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="20">
-        <v>43431</v>
-      </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-    </row>
-    <row r="11" spans="1:19" s="4" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A11" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="20">
-        <v>43431</v>
-      </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" s="4" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A12" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="20">
-        <v>43431</v>
-      </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-    </row>
-    <row r="13" spans="1:19" s="4" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A13" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="20">
-        <v>43929</v>
-      </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-    </row>
-    <row r="14" spans="1:19" s="4" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A14" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="3"/>
       <c r="S14" s="3"/>
-    </row>
-    <row r="15" spans="1:19" s="4" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A15" s="9" t="s">
-        <v>97</v>
+      <c r="T14" s="3"/>
+    </row>
+    <row r="15" spans="1:20" s="4" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>129</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="3"/>
+        <v>107</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="19">
+        <v>44284</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="74" t="s">
+        <v>51</v>
+      </c>
+      <c r="I15" s="74" t="s">
+        <v>93</v>
+      </c>
+      <c r="J15" s="74" t="s">
+        <v>93</v>
+      </c>
+      <c r="K15" s="74"/>
+      <c r="L15" s="74"/>
+      <c r="M15" s="74"/>
+      <c r="N15" s="74"/>
+      <c r="O15" s="74"/>
+      <c r="P15" s="74"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="18"/>
       <c r="S15" s="3"/>
-    </row>
-    <row r="16" spans="1:19" s="4" customFormat="1" ht="25.5">
-      <c r="A16" s="9" t="s">
-        <v>98</v>
+      <c r="T15" s="3"/>
+    </row>
+    <row r="16" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>128</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="1:19" s="4" customFormat="1" ht="38.25">
-      <c r="A17" s="9" t="s">
-        <v>102</v>
+        <v>130</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="19">
+        <v>44284</v>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="H16" s="74" t="s">
+        <v>51</v>
+      </c>
+      <c r="I16" s="74" t="s">
+        <v>93</v>
+      </c>
+      <c r="J16" s="74" t="s">
+        <v>93</v>
+      </c>
+      <c r="K16" s="74"/>
+      <c r="L16" s="74"/>
+      <c r="M16" s="74"/>
+      <c r="N16" s="74"/>
+      <c r="O16" s="74"/>
+      <c r="P16" s="74"/>
+      <c r="R16" s="18"/>
+    </row>
+    <row r="17" spans="1:18" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>103</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C17" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="19">
+        <v>44286</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="74" t="s">
+        <v>51</v>
+      </c>
+      <c r="I17" s="74" t="s">
+        <v>93</v>
+      </c>
+      <c r="J17" s="74" t="s">
+        <v>93</v>
+      </c>
+      <c r="K17" s="74"/>
+      <c r="L17" s="74"/>
+      <c r="M17" s="74"/>
+      <c r="N17" s="74"/>
+      <c r="O17" s="74"/>
+      <c r="P17" s="74"/>
+      <c r="R17" s="18"/>
+    </row>
+    <row r="18" spans="1:18" s="3" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="B18" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="19">
+        <v>44285</v>
+      </c>
+      <c r="G18" s="7"/>
+      <c r="H18" s="74" t="s">
+        <v>51</v>
+      </c>
+      <c r="I18" s="74" t="s">
+        <v>93</v>
+      </c>
+      <c r="J18" s="74" t="s">
+        <v>93</v>
+      </c>
+      <c r="K18" s="74"/>
+      <c r="L18" s="74"/>
+      <c r="M18" s="74"/>
+      <c r="N18" s="74"/>
+      <c r="O18" s="74"/>
+      <c r="P18" s="74"/>
+      <c r="R18" s="18"/>
+    </row>
+    <row r="19" spans="1:18" s="3" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="E17" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="19" t="s">
+      <c r="B19" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="19">
+        <v>44286</v>
+      </c>
+      <c r="G19" s="7"/>
+      <c r="H19" s="74" t="s">
+        <v>51</v>
+      </c>
+      <c r="I19" s="74" t="s">
+        <v>93</v>
+      </c>
+      <c r="J19" s="74" t="s">
+        <v>93</v>
+      </c>
+      <c r="K19" s="74"/>
+      <c r="L19" s="74"/>
+      <c r="M19" s="74"/>
+      <c r="N19" s="74"/>
+      <c r="O19" s="74"/>
+      <c r="P19" s="74"/>
+      <c r="R19" s="18"/>
+    </row>
+    <row r="20" spans="1:18" s="3" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-    </row>
-    <row r="18" spans="1:19" s="4" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A18" s="9"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-    </row>
-    <row r="19" spans="1:19" ht="25.15" customHeight="1">
-      <c r="A19" s="9"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="Q19" s="19"/>
-    </row>
-    <row r="20" spans="1:19" ht="25.15" customHeight="1">
-      <c r="A20" s="9"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
+      <c r="B20" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>125</v>
+      </c>
       <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="Q20" s="19"/>
-    </row>
-    <row r="21" spans="1:19" s="3" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A21" s="9"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
+      <c r="F20" s="19">
+        <v>44313</v>
+      </c>
+      <c r="G20" s="7"/>
+      <c r="H20" s="74" t="s">
+        <v>51</v>
+      </c>
+      <c r="I20" s="74" t="s">
+        <v>93</v>
+      </c>
+      <c r="J20" s="74" t="s">
+        <v>93</v>
+      </c>
+      <c r="K20" s="74"/>
+      <c r="L20" s="74"/>
+      <c r="M20" s="74"/>
+      <c r="N20" s="74"/>
+      <c r="O20" s="74"/>
+      <c r="P20" s="74"/>
+      <c r="R20" s="18"/>
+    </row>
+    <row r="21" spans="1:18" s="3" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>125</v>
+      </c>
       <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="Q21" s="19"/>
-    </row>
-    <row r="22" spans="1:19" s="3" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A22" s="9"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="Q22" s="19"/>
-    </row>
-    <row r="23" spans="1:19" s="3" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A23" s="9"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="Q23" s="19"/>
-    </row>
-    <row r="24" spans="1:19" s="3" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A24" s="9"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="Q24" s="19"/>
-    </row>
-    <row r="25" spans="1:19" ht="12.75" customHeight="1">
-      <c r="A25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-    </row>
-    <row r="26" spans="1:19" ht="25.15" customHeight="1">
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-    </row>
-    <row r="27" spans="1:19" ht="25.15" customHeight="1">
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-    </row>
-    <row r="28" spans="1:19" ht="25.15" customHeight="1"/>
-    <row r="29" spans="1:19" ht="25.15" customHeight="1"/>
-    <row r="30" spans="1:19" ht="25.15" customHeight="1"/>
+      <c r="F21" s="19">
+        <v>43418</v>
+      </c>
+      <c r="G21" s="54"/>
+      <c r="H21" s="74" t="s">
+        <v>51</v>
+      </c>
+      <c r="I21" s="74" t="s">
+        <v>93</v>
+      </c>
+      <c r="J21" s="74" t="s">
+        <v>93</v>
+      </c>
+      <c r="K21" s="77"/>
+      <c r="L21" s="77"/>
+      <c r="M21" s="77"/>
+      <c r="N21" s="77"/>
+      <c r="O21" s="77"/>
+      <c r="P21" s="77"/>
+      <c r="R21" s="48"/>
+    </row>
+    <row r="22" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B22" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="C22" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="D22" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="E22" s="53"/>
+      <c r="F22" s="19">
+        <v>44314</v>
+      </c>
+      <c r="G22" s="51"/>
+      <c r="H22" s="74" t="s">
+        <v>93</v>
+      </c>
+      <c r="I22" s="74" t="s">
+        <v>93</v>
+      </c>
+      <c r="J22" s="78" t="s">
+        <v>51</v>
+      </c>
+      <c r="K22" s="78"/>
+      <c r="L22" s="74"/>
+      <c r="M22" s="74"/>
+      <c r="N22" s="74"/>
+      <c r="O22" s="74"/>
+      <c r="P22" s="74"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+    </row>
+    <row r="23" spans="1:18" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B23" s="50" t="s">
+        <v>133</v>
+      </c>
+      <c r="C23" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="E23" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="F23" s="19">
+        <v>43418</v>
+      </c>
+      <c r="G23" s="51"/>
+      <c r="H23" s="78" t="s">
+        <v>49</v>
+      </c>
+      <c r="I23" s="74" t="s">
+        <v>93</v>
+      </c>
+      <c r="J23" s="74" t="s">
+        <v>93</v>
+      </c>
+      <c r="K23" s="78"/>
+      <c r="L23" s="74"/>
+      <c r="M23" s="74"/>
+      <c r="N23" s="74"/>
+      <c r="O23" s="74"/>
+      <c r="P23" s="74"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+    </row>
+    <row r="24" spans="1:18" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="50"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="80"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="78"/>
+      <c r="I24" s="74"/>
+      <c r="J24" s="74"/>
+      <c r="K24" s="78"/>
+      <c r="L24" s="74"/>
+      <c r="M24" s="74"/>
+      <c r="N24" s="74"/>
+      <c r="O24" s="74"/>
+      <c r="P24" s="74"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+    </row>
+    <row r="25" spans="1:18" ht="25.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:18" ht="25.15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A2:S24" xr:uid="{982C831D-1263-40E9-8EE9-2E558EB9CD6F}"/>
+  <autoFilter ref="A2:T23" xr:uid="{982C831D-1263-40E9-8EE9-2E558EB9CD6F}"/>
   <mergeCells count="1">
-    <mergeCell ref="G1:O1"/>
+    <mergeCell ref="H1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2803,74 +3211,74 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="23.88671875" customWidth="1"/>
+    <col min="2" max="2" width="23.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="65" t="s">
-        <v>107</v>
-      </c>
-      <c r="B1" s="66"/>
-    </row>
-    <row r="3" spans="1:2" ht="22.5" customHeight="1">
-      <c r="A3" s="67" t="s">
-        <v>108</v>
-      </c>
-      <c r="B3" s="68"/>
-    </row>
-    <row r="4" spans="1:2" ht="22.5" customHeight="1">
-      <c r="A4" s="8" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="22.5" customHeight="1">
-      <c r="A5" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="22.5" customHeight="1">
-      <c r="A6" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="22.5" customHeight="1">
-      <c r="A7" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="22.5" customHeight="1">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-    </row>
-    <row r="9" spans="1:2" ht="22.5" customHeight="1">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-    </row>
-    <row r="10" spans="1:2" ht="22.5" customHeight="1"/>
-    <row r="12" spans="1:2" ht="25.5" customHeight="1"/>
-    <row r="13" spans="1:2" ht="25.5" customHeight="1"/>
-    <row r="14" spans="1:2" ht="25.5" customHeight="1"/>
-    <row r="15" spans="1:2" ht="25.5" customHeight="1"/>
-    <row r="16" spans="1:2" ht="25.5" customHeight="1"/>
-    <row r="17" ht="25.5" customHeight="1"/>
-    <row r="18" ht="25.5" customHeight="1"/>
+      <c r="B1" s="72"/>
+    </row>
+    <row r="3" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="73"/>
+    </row>
+    <row r="4" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+    </row>
+    <row r="9" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8"/>
+    </row>
+    <row r="10" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="17" ht="25.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="18" ht="25.5" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
@@ -2882,39 +3290,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="35a352f6-bb32-4738-bdb1-5d89d34e1d5b">
-      <UserInfo>
-        <DisplayName>David Riley</DisplayName>
-        <AccountId>60</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <Sub_x0020_Category_x0020_2 xmlns="115f44e2-978c-4fc0-916e-020cb2d3019a" xsi:nil="true"/>
-    <Document_x0020_Sub_x0020_Type xmlns="115f44e2-978c-4fc0-916e-020cb2d3019a" xsi:nil="true"/>
-    <Document_x0020_Type xmlns="115f44e2-978c-4fc0-916e-020cb2d3019a" xsi:nil="true"/>
-    <Event_x0020_Date xmlns="115f44e2-978c-4fc0-916e-020cb2d3019a" xsi:nil="true"/>
-    <Description0 xmlns="115f44e2-978c-4fc0-916e-020cb2d3019a" xsi:nil="true"/>
-    <_dlc_DocId xmlns="35a352f6-bb32-4738-bdb1-5d89d34e1d5b">NHSD-1000054-651425256-4681</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="35a352f6-bb32-4738-bdb1-5d89d34e1d5b">
-      <Url>https://hscic365.sharepoint.com/sites/IP/_layouts/15/DocIdRedir.aspx?ID=NHSD-1000054-651425256-4681</Url>
-      <Description>NHSD-1000054-651425256-4681</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -2962,6 +3337,39 @@
     <Filter/>
   </Receiver>
 </spe:Receivers>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="35a352f6-bb32-4738-bdb1-5d89d34e1d5b">
+      <UserInfo>
+        <DisplayName>David Riley</DisplayName>
+        <AccountId>60</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <Sub_x0020_Category_x0020_2 xmlns="115f44e2-978c-4fc0-916e-020cb2d3019a" xsi:nil="true"/>
+    <Document_x0020_Sub_x0020_Type xmlns="115f44e2-978c-4fc0-916e-020cb2d3019a" xsi:nil="true"/>
+    <Document_x0020_Type xmlns="115f44e2-978c-4fc0-916e-020cb2d3019a" xsi:nil="true"/>
+    <Event_x0020_Date xmlns="115f44e2-978c-4fc0-916e-020cb2d3019a" xsi:nil="true"/>
+    <Description0 xmlns="115f44e2-978c-4fc0-916e-020cb2d3019a" xsi:nil="true"/>
+    <_dlc_DocId xmlns="35a352f6-bb32-4738-bdb1-5d89d34e1d5b">NHSD-1000054-651425256-4681</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="35a352f6-bb32-4738-bdb1-5d89d34e1d5b">
+      <Url>https://hscic365.sharepoint.com/sites/IP/_layouts/15/DocIdRedir.aspx?ID=NHSD-1000054-651425256-4681</Url>
+      <Description>NHSD-1000054-651425256-4681</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3370,17 +3778,48 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19527844-3993-4EBF-BA59-69946A2E3CDA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9F94994-500A-4922-BA7C-3020AB350F37}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA6ABD8D-E8E0-4A87-B5D5-CD93CCD3C44E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA6ABD8D-E8E0-4A87-B5D5-CD93CCD3C44E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9F94994-500A-4922-BA7C-3020AB350F37}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19527844-3993-4EBF-BA59-69946A2E3CDA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="35a352f6-bb32-4738-bdb1-5d89d34e1d5b"/>
+    <ds:schemaRef ds:uri="115f44e2-978c-4fc0-916e-020cb2d3019a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{210A4BCC-073C-443C-ADCF-328FF2627342}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{210A4BCC-073C-443C-ADCF-328FF2627342}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="35a352f6-bb32-4738-bdb1-5d89d34e1d5b"/>
+    <ds:schemaRef ds:uri="115f44e2-978c-4fc0-916e-020cb2d3019a"/>
+    <ds:schemaRef ds:uri="8ef27af4-83ba-4060-a827-ccfbfd4f0d1f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>